--- a/01.LiteratureReview/Reference.xlsx
+++ b/01.LiteratureReview/Reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>S.No</t>
   </si>
@@ -105,6 +105,46 @@
   </si>
   <si>
     <t>https://scholar.google.com/scholar?um=1&amp;ie=UTF-8&amp;lr&amp;cites=2269942534674941865</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Document Similarity for Texts of Varying Lengths via Hidden Topics</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/P18-1218</t>
+  </si>
+  <si>
+    <t>Proceedings of the 56th Annual Meeting of the Association for Computational Linguistics (Long Papers), pages 2341–2351
+Melbourne, Australia, July 15 - 20, 2018</t>
+  </si>
+  <si>
+    <t>https://github.com/HongyuGong/Document-Similarity-via-Hidden-Topics</t>
+  </si>
+  <si>
+    <t>Using Domain Similarity for Performance Estimation</t>
+  </si>
+  <si>
+    <t>Proceedings of the 2010 Workshop on Domain Adaptation for Natural Language Processing, ACL 2010, pages 31–36,
+Uppsala, Sweden, 15 July 2010. 
+c 2010 Association for Computational Linguistics</t>
+  </si>
+  <si>
+    <t>http://jalammar.github.io/illustrated-transformer/?source=post_page---------------------------</t>
+  </si>
+  <si>
+    <t>BERT Explained</t>
+  </si>
+  <si>
+    <t>BERT: Pre-training of Deep Bidirectional Transformers for Language Understanding</t>
+  </si>
+  <si>
+    <t>Jacob Devlin, Ming-Wei Chang, Kenton Lee, Kristina Toutanova
+arXiv:1810.04805v2 [cs.CL] 24 May 2019</t>
+  </si>
+  <si>
+    <t>https://www.aclweb.org/anthology/N19-1423</t>
   </si>
 </sst>
 </file>
@@ -176,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -193,6 +233,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,15 +551,16 @@
     <col min="3" max="3" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="71.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="81.42578125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +576,11 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -547,7 +594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -561,7 +608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -575,22 +622,70 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
       <c r="C7" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -625,6 +720,10 @@
     <hyperlink ref="C5" r:id="rId2"/>
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="D1" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
